--- a/results/Results_PSO_PID_Test_4.xlsx
+++ b/results/Results_PSO_PID_Test_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,37 +446,202 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SettlingTime</t>
+          <t>SettlingTime_z</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Overshoot</t>
+          <t>SettlingTime_phi</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RiseTime</t>
+          <t>SettlingTime_theta</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SteadyError</t>
+          <t>SettlingTime_psi</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ITSE</t>
+          <t>Overshoot_z</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>IAE</t>
+          <t>Overshoot_phi</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Overshoot_theta</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overshoot_psi</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_z</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_phi</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_theta</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_psi</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_z</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_phi</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_theta</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_psi</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_z</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_phi</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_theta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_psi</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_z</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_phi</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_theta</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_psi</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_z</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_phi</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_theta</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_psi</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_z</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_z</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_z</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_phi</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_phi</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_phi</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_theta</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_theta</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_theta</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_psi</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_psi</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_psi</t>
         </is>
       </c>
     </row>
@@ -485,28 +650,123 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08102229179243682</v>
+        <v>0.03923455540574513</v>
       </c>
       <c r="C2" t="n">
-        <v>1.88376753507014</v>
+        <v>1.102204408817635</v>
       </c>
       <c r="D2" t="n">
-        <v>6.705418002775909</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.501002004008016</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.542956712175414e-05</v>
+        <v>0.7014028056112224</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04702871329646947</v>
+        <v>0.8783513060337089</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4204896878819018</v>
+        <v>8.155937898162602e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1657114881033567</v>
+        <v>0.0001545932818993029</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.364797805696987</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7414829659318638</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>0.4809619238476954</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.01685538467592169</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9.450973006482916e-11</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.015782978997992e-06</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.001609007581848629</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.08856807828417997</v>
+      </c>
+      <c r="T2" t="n">
+        <v>8.16090051496038e-18</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4.743531442341108e-11</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.01821653133158454</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6298329738764984</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.045254561607408e-09</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7.889286169438364e-06</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.2607148863702082</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.1859763237364657</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.303109506773821e-09</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.908942169513869e-07</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.1158821474317134</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10.89863319207779</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.9626299345442723</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9.896332155070702</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.05717961651391729</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.6001855048298473</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1.255006659446913</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.72718901213634</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.8148467934104</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.765665220564219</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +774,123 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0417176506487355</v>
+        <v>0.07961797748448034</v>
       </c>
       <c r="C3" t="n">
-        <v>1.062124248496994</v>
+        <v>2.304609218436874</v>
       </c>
       <c r="D3" t="n">
-        <v>1.104483151750424</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7214428857715431</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01639912242812525</v>
+        <v>0.6012024048096192</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08571700513081301</v>
+        <v>5.538254888915617</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6197605718051165</v>
+        <v>0.000163756103327296</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1847364068608881</v>
+        <v>2.400400835980718e-06</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.964423366288119</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5210420841683366</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0.4008016032064128</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.007394654119985447</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.466824883022627e-07</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.527943465657743e-10</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.001271386400429249</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.05303323970110901</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.565064848332468e-11</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.61646126800615e-16</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.01408966008138878</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.4911043623343405</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8.178660544077903e-06</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.79687886942521e-08</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2286917161216931</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.1669897775387919</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9.658649275300913e-07</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.016781906266485e-09</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.1092319676039775</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.9699080184297713</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0171314536677639</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>7.223256271842967</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.896616765192398</v>
       </c>
     </row>
     <row r="4">
@@ -543,28 +898,123 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04145163587797322</v>
+        <v>0.08388479476621112</v>
       </c>
       <c r="C4" t="n">
-        <v>1.082164328657315</v>
+        <v>1.24248496993988</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8195514396533987</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7214428857715431</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01560537434385783</v>
+        <v>7.595190380761522</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08580826738387917</v>
+        <v>0.6309310572432336</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6184818629758071</v>
+        <v>0.0007591293701272734</v>
       </c>
       <c r="I4" t="n">
-        <v>0.185411581991946</v>
+        <v>1.410597755810941e-05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19.74722517698439</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8016032064128257</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>1.002004008016032</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01085239370509169</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.293588766480989e-06</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.03240115281548e-08</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.004769540706548749</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.09506903858098431</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4.95082943727559e-10</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.106923145083432e-13</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1539597430847292</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.6311392276744353</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.554465022843098e-05</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>7.136888032239066e-07</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.8254448960047347</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1933455036639593</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2.395730888170574e-06</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.087096878759486e-08</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.171512702043416</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>9.426759295306173</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.970769710112356</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4.836354095924344</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.09988506787696184</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.7746509226749096</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>3.031814846574388</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.008757775405822343</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1.999951858004623</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.39472755354316</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0662642870241465</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1.938982972203571</v>
       </c>
     </row>
     <row r="5">
@@ -572,28 +1022,123 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04158868608081127</v>
+        <v>0.03953188369380296</v>
       </c>
       <c r="C5" t="n">
-        <v>1.062124248496994</v>
+        <v>1.122244488977956</v>
       </c>
       <c r="D5" t="n">
-        <v>1.106990212504799</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7214428857715431</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0147283616536778</v>
+        <v>0.721442885771543</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08347811790370677</v>
+        <v>0.6720003767591631</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6070075516772231</v>
+        <v>0.0004196271526663723</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1848097166454523</v>
+        <v>9.321259570132296e-06</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.728815153313755</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7414829659318638</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>0.4809619238476954</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01591311522431055</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.508866161590747e-06</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.105966962734168e-08</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.001782586170435656</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.08943966422824465</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.838955216287577e-10</v>
+      </c>
+      <c r="U5" t="n">
+        <v>7.368976797616475e-14</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.01968620215032611</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.6306957785544031</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9.681658190851201e-06</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.566926670538251e-07</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.2719497160862259</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.1871867395512987</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.498404041377618e-06</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4.210074662843406e-08</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.1181329733951581</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10.67199289763172</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.9640175348011517</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.44661624878785</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.05735710643134301</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.1058274600245186</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>4.746986668037697</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.0039955278277295</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.266319315843814</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.646260871335737</v>
       </c>
     </row>
     <row r="6">
@@ -601,28 +1146,123 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08858747003026345</v>
+        <v>0.06029497166096982</v>
       </c>
       <c r="C6" t="n">
-        <v>2.264529058116232</v>
+        <v>1.202404809619238</v>
       </c>
       <c r="D6" t="n">
-        <v>5.209673539208515</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5410821643286573</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005719557236446346</v>
+        <v>1.843687374749499</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05338840513292476</v>
+        <v>1.183001519192839</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4809024048619248</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1688597771575701</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23.22661620336542</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8016032064128257</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>0.4008016032064128</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.008196691130918041</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4.515146278460947e-06</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.09248769665315329</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.03714374792417989</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.6104453499716611</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.3691252233891268</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1933272326025613</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1232605235690522</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>9.24641176711016</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.9734210098530899</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4.7214695843491</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.071677024757088</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.03338165257584331</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.3402851562405932</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>8.056743308816738</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.07927297483499</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.5227158606765773</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.169960701082309</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.07702505103529117</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1.502491290917464</v>
       </c>
     </row>
   </sheetData>
